--- a/biology/Botanique/Gyrodon_lividus/Gyrodon_lividus.xlsx
+++ b/biology/Botanique/Gyrodon_lividus/Gyrodon_lividus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet livide, Bolet de l'Aulne
 Gyrodon lividus, le Bolet livide, est une espèce de champignons (Fungi) basidiomycètes du genre Gyrodon dans la famille des Paxillaceae. Il est caractérisé par ses pores décurrents et son inféodation exclusive aux aulnes.
@@ -512,12 +524,49 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Gyrodon lividus (Bull.) Sacc., 1888[1].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus lividus Bull., 1791[1].
-Synonymes
-Gyrodon lividus a pour synonymes[1] 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Gyrodon lividus (Bull.) Sacc., 1888.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus lividus Bull., 1791.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gyrodon lividus a pour synonymes 
 Boletus brachyporus Pers., 1825
 Boletus chrysenteron var. lividus (Bull.) Mérat, 1821
 Boletus lividus var. alneti Lindgr., 1874
@@ -530,49 +579,6 @@
 Suillus chrysenteron var. lividus (Bull.) Poiret, 1806
 Uloporus lividus var. lividus (Bull.) Quél., 1886
 Uloporus lividus (Bull.) Quél., 1886
-Phylogénie
-Le bolet livide a été initialement décrit par le mycologue français Pierre Bulliard en 1791 sous le nom de Boletus lividus, avant de recevoir son nom binomial actuel en 1888 par Pier Andrea Saccardo lorsqu'il l'a transféré dans le genre Gyrodon. Lorsque Saccardo a circonscrit le genre Gyrodon, il a inclus Boletus sistotremoides (publié par Elias Fries en 1815) comme espèce type. Rolf Singer a déterminé plus tard que le taxon de Fries était la même espèce que Gyrodon lividus. Auparavant, en 1886, Lucien Quélet avait créé le genre Uliporus avec Boletus lividus comme espèce type. La découverte de Singer a rendu le genre Uliporus obsolète et Boletus sistrotremoides est devenu synonyme de Gyrodon lividus.
-Étymologie
-Le nom de genre Gyrodon est dérivé du grec ancien gyros "tourbillon" et odon "dent", tandis que l'épithète spécifique lividus signifie "couleur de plomb" en latin.
-Noms vulgaires et vernaculaires
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : bolet livide[2] ou bolet de l'aulne[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gyrodon_lividus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gyrodon_lividus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Gyrodon lividus, le Bolet livide, sont les suivantes :
-Son chapeau mesure de 3 à 15 cm, il est un peu visqueux, beige ochracé, jaune à jaune ochracé puis, avec l'âge, envahi de brun fauve[4].
-L'hyménophore présente des tubes décurrents remarquablement courts, jaunes puis jaune verdâtre. Les pores sont jaunes, bleuissants au toucher[4].
-Son stipe mesure 4 à 10 cm x 1 à 2,5 cm, jaune puis envahi de fibrilles brun-roux[4].
-La chair est jaunâtre, légèrement verdissante à la coupe, roussâtre dans le pied. Sa saveur est douce et son odeur est faible, un peu acidulée[4].
-Caractéristiques microscopiques
-Ses spores mesurent 5 à 6,5 μm x 3,5 à 5 μm, elles sont ovoïdes ou elliptiques[4].
 </t>
         </is>
       </c>
@@ -598,12 +604,199 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bolet livide a été initialement décrit par le mycologue français Pierre Bulliard en 1791 sous le nom de Boletus lividus, avant de recevoir son nom binomial actuel en 1888 par Pier Andrea Saccardo lorsqu'il l'a transféré dans le genre Gyrodon. Lorsque Saccardo a circonscrit le genre Gyrodon, il a inclus Boletus sistotremoides (publié par Elias Fries en 1815) comme espèce type. Rolf Singer a déterminé plus tard que le taxon de Fries était la même espèce que Gyrodon lividus. Auparavant, en 1886, Lucien Quélet avait créé le genre Uliporus avec Boletus lividus comme espèce type. La découverte de Singer a rendu le genre Uliporus obsolète et Boletus sistrotremoides est devenu synonyme de Gyrodon lividus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Gyrodon est dérivé du grec ancien gyros "tourbillon" et odon "dent", tandis que l'épithète spécifique lividus signifie "couleur de plomb" en latin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français le nom vernaculaire ou normalisé suivant : bolet livide ou bolet de l'aulne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Gyrodon lividus, le Bolet livide, sont les suivantes :
+Son chapeau mesure de 3 à 15 cm, il est un peu visqueux, beige ochracé, jaune à jaune ochracé puis, avec l'âge, envahi de brun fauve.
+L'hyménophore présente des tubes décurrents remarquablement courts, jaunes puis jaune verdâtre. Les pores sont jaunes, bleuissants au toucher.
+Son stipe mesure 4 à 10 cm x 1 à 2,5 cm, jaune puis envahi de fibrilles brun-roux.
+La chair est jaunâtre, légèrement verdissante à la coupe, roussâtre dans le pied. Sa saveur est douce et son odeur est faible, un peu acidulée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 5 à 6,5 μm x 3,5 à 5 μm, elles sont ovoïdes ou elliptiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (13 février 2024)[1] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (13 février 2024) :
 Gyrodon lividus subsp. alneti Lindgr.
 Gyrodon lividus subsp. labyrinthicus (Fr.) Sacc., 1888
 Gyrodon lividus subsp. lividus
@@ -612,94 +805,100 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Gyrodon_lividus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gyrodon_lividus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien, poussant uniquement sous les aulnes (Alnus sp.), dans des milieux humides[4].
-L'association stricte du Bolet livide avec les aulnes est importante : les aulnaies sont des milieux fragiles, à protéger, dans lesquels la diversité des champignons (notamment les Alnicola), mais aussi celle des autres organismes vivants, est abondante et variée. L'installation du Bolet livide (ainsi que celle de Paxillus olivellus) dans une aulnaie trahit que celle-ci est en voie d'assèchement et trop riche et nitrates : elle est probablement en train de disparaitre[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Gyrodon_lividus</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gyrodon_lividus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit un champignon ectomycorhizien, poussant uniquement sous les aulnes (Alnus sp.), dans des milieux humides.
+L'association stricte du Bolet livide avec les aulnes est importante : les aulnaies sont des milieux fragiles, à protéger, dans lesquels la diversité des champignons (notamment les Alnicola), mais aussi celle des autres organismes vivants, est abondante et variée. L'installation du Bolet livide (ainsi que celle de Paxillus olivellus) dans une aulnaie trahit que celle-ci est en voie d'assèchement et trop riche et nitrates : elle est probablement en train de disparaitre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bolet livide n'est pas un champignon traditionnellement consommé. En outre, la possibilité de collecter des quantités suffisantes pour la consommation, en dehors des localités individuelles où les aulnes sont abondants, est rare. Il s'agit d'une espèce occasionnellement récoltée et consommée par des amateurs individuels, il n'y a pas d'effets toxiques documentés à la suite de sa consommation. Le Bolet livide peut être considéré comme comestible sans intérêt[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Gyrodon_lividus</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Gyrodon_lividus</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bolet livide n'est pas un champignon traditionnellement consommé. En outre, la possibilité de collecter des quantités suffisantes pour la consommation, en dehors des localités individuelles où les aulnes sont abondants, est rare. Il s'agit d'une espèce occasionnellement récoltée et consommée par des amateurs individuels, il n'y a pas d'effets toxiques documentés à la suite de sa consommation. Le Bolet livide peut être considéré comme comestible sans intérêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gyrodon_lividus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bolet lignicole (Buchwaldoboletus lignicola) a parfois des pores décurrents, mais il pousse sur bois.
 </t>
